--- a/doc/处方/连连看游戏excel文档.xlsx
+++ b/doc/处方/连连看游戏excel文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8370"/>
+    <workbookView windowWidth="12090" windowHeight="3855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>处方</t>
   </si>
@@ -42,10 +42,10 @@
     <t>桂皮</t>
   </si>
   <si>
-    <t>燀杏仁</t>
-  </si>
-  <si>
-    <t>杏仁</t>
+    <t>燀苦杏仁</t>
+  </si>
+  <si>
+    <t>苦杏仁</t>
   </si>
   <si>
     <t>蜜炙甘草</t>
@@ -162,10 +162,7 @@
     <t>生桃仁</t>
   </si>
   <si>
-    <t>甘草？</t>
-  </si>
-  <si>
-    <t>净提芒硝</t>
+    <t>制芒硝</t>
   </si>
   <si>
     <t>芒硝</t>
@@ -178,9 +175,6 @@
   </si>
   <si>
     <t>当归尾</t>
-  </si>
-  <si>
-    <t>当归身</t>
   </si>
   <si>
     <t>炮姜</t>
@@ -321,9 +315,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -343,18 +337,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -410,7 +398,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,19 +411,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,11 +730,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -781,8 +760,8 @@
   <sheetPr/>
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -840,34 +819,34 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -875,10 +854,10 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -886,31 +865,31 @@
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -918,59 +897,59 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -978,27 +957,27 @@
       <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1006,34 +985,34 @@
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1041,300 +1020,302 @@
       <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="C36" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="3" t="s">
+    <row r="41" spans="2:3">
+      <c r="B41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="3" t="s">
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="3" t="s">
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="4" t="s">
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2"/>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="4" t="s">
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>86</v>
-      </c>
-      <c r="B62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="4" t="s">
+      <c r="B63" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -1342,115 +1323,115 @@
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>91</v>
-      </c>
-      <c r="B67" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>91</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="3" t="s">
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>11</v>
       </c>
     </row>
